--- a/AnalysisCat.Helper/CatConfig/Cat021pt12ed24.xlsx
+++ b/AnalysisCat.Helper/CatConfig/Cat021pt12ed24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\AnalysisCat\AnalysisCat.Helper\CatConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E943133-D19A-40EA-98BD-1A6584911686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B22EE9-D7E8-47AB-A676-7D21DEB03AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>FRN</t>
   </si>
   <si>
-    <t>Data Item</t>
-  </si>
-  <si>
     <t>Information</t>
   </si>
   <si>
@@ -316,6 +313,10 @@
   </si>
   <si>
     <t>Special Purpose Field</t>
+  </si>
+  <si>
+    <t>DataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -673,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -687,13 +688,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -701,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -715,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -729,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -743,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -757,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -768,10 +769,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -793,10 +794,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -807,10 +808,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -821,10 +822,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -835,10 +836,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -849,10 +850,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -863,10 +864,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -874,10 +875,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -885,10 +886,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -899,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -913,13 +914,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,10 +928,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -941,10 +942,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -955,10 +956,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -969,10 +970,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -980,10 +981,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -1005,10 +1006,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1019,10 +1020,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1033,10 +1034,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -1047,10 +1048,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -1061,10 +1062,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -1075,10 +1076,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,10 +1098,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -1111,10 +1112,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1125,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,10 +1140,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -1153,10 +1154,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1167,13 +1168,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1181,10 +1182,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1192,10 +1193,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1203,10 +1204,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1217,13 +1218,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,10 +1232,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1245,13 +1246,13 @@
         <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,10 +1260,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
@@ -1273,10 +1274,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1287,21 +1288,21 @@
         <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1310,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1318,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1326,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,7 +1334,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1341,7 +1342,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,10 +1350,10 @@
         <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1360,18 +1361,18 @@
         <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
